--- a/notebooks/sampling/samples.xlsx
+++ b/notebooks/sampling/samples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b73f4100931222f3/WU/Semester 4/Thesis/git-miner/notebooks/sampling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{0A97425D-7AEA-4D26-8512-4A282A40B2FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A2CC100C-46D5-46D0-8DA3-31DE85622D4C}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{0A97425D-7AEA-4D26-8512-4A282A40B2FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{97D5DF7F-F159-4336-BECE-E6824455EFCF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{59E379DB-0ECB-4CF0-882C-DBE5760192CF}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="553">
   <si>
     <t>Column1</t>
   </si>
@@ -2179,8 +2179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F36F3A-0913-43E9-A218-DD67C26CDF8D}">
   <dimension ref="A1:AC111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10055,6 +10055,9 @@
       <c r="A92">
         <v>471</v>
       </c>
+      <c r="B92" t="s">
+        <v>552</v>
+      </c>
       <c r="C92" s="1" t="s">
         <v>463</v>
       </c>

--- a/notebooks/sampling/samples.xlsx
+++ b/notebooks/sampling/samples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b73f4100931222f3/WU/Semester 4/Thesis/git-miner/notebooks/sampling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{0A97425D-7AEA-4D26-8512-4A282A40B2FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{97D5DF7F-F159-4336-BECE-E6824455EFCF}"/>
+  <xr:revisionPtr revIDLastSave="137" documentId="8_{0A97425D-7AEA-4D26-8512-4A282A40B2FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1560E339-DD35-49CA-96DD-061958F4EE26}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{59E379DB-0ECB-4CF0-882C-DBE5760192CF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{59E379DB-0ECB-4CF0-882C-DBE5760192CF}"/>
   </bookViews>
   <sheets>
     <sheet name="sample_projects" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="565">
   <si>
     <t>Column1</t>
   </si>
@@ -1705,6 +1705,42 @@
   </si>
   <si>
     <t>NOT OK</t>
+  </si>
+  <si>
+    <t>OK (modified)</t>
+  </si>
+  <si>
+    <t>OK (v, modified)</t>
+  </si>
+  <si>
+    <t>OK (v)</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>OK (rel-)</t>
+  </si>
+  <si>
+    <t>OK (v, modify?)</t>
+  </si>
+  <si>
+    <t>OK (v and z)</t>
+  </si>
+  <si>
+    <t>OK (zfs-)</t>
+  </si>
+  <si>
+    <t>OK (release-)</t>
+  </si>
+  <si>
+    <t>OK (sometimes v)</t>
+  </si>
+  <si>
+    <t>NOT OK (fork)</t>
+  </si>
+  <si>
+    <t>OK (v or netcdf-)</t>
   </si>
 </sst>
 </file>
@@ -2179,14 +2215,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F36F3A-0913-43E9-A218-DD67C26CDF8D}">
   <dimension ref="A1:AC111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
@@ -2395,6 +2429,9 @@
       <c r="A3">
         <v>1048</v>
       </c>
+      <c r="B3" t="s">
+        <v>554</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>36</v>
       </c>
@@ -2481,6 +2518,9 @@
       <c r="A4">
         <v>1712</v>
       </c>
+      <c r="B4" t="s">
+        <v>551</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>41</v>
       </c>
@@ -2567,6 +2607,9 @@
       <c r="A5">
         <v>387</v>
       </c>
+      <c r="B5" t="s">
+        <v>551</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>46</v>
       </c>
@@ -2653,6 +2696,9 @@
       <c r="A6">
         <v>1018</v>
       </c>
+      <c r="B6" t="s">
+        <v>551</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>52</v>
       </c>
@@ -2739,6 +2785,9 @@
       <c r="A7">
         <v>437</v>
       </c>
+      <c r="B7" t="s">
+        <v>551</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>59</v>
       </c>
@@ -2825,6 +2874,9 @@
       <c r="A8">
         <v>564</v>
       </c>
+      <c r="B8" t="s">
+        <v>555</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>66</v>
       </c>
@@ -2911,6 +2963,9 @@
       <c r="A9">
         <v>1035</v>
       </c>
+      <c r="B9" t="s">
+        <v>555</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>72</v>
       </c>
@@ -2997,6 +3052,9 @@
       <c r="A10">
         <v>144</v>
       </c>
+      <c r="B10" t="s">
+        <v>555</v>
+      </c>
       <c r="C10" s="1" t="s">
         <v>77</v>
       </c>
@@ -3172,6 +3230,9 @@
       <c r="A12">
         <v>199</v>
       </c>
+      <c r="B12" t="s">
+        <v>555</v>
+      </c>
       <c r="C12" s="1" t="s">
         <v>85</v>
       </c>
@@ -3258,6 +3319,9 @@
       <c r="A13">
         <v>1865</v>
       </c>
+      <c r="B13" t="s">
+        <v>551</v>
+      </c>
       <c r="C13" s="1" t="s">
         <v>89</v>
       </c>
@@ -3344,6 +3408,9 @@
       <c r="A14">
         <v>134</v>
       </c>
+      <c r="B14" t="s">
+        <v>552</v>
+      </c>
       <c r="C14" s="1" t="s">
         <v>95</v>
       </c>
@@ -3430,6 +3497,9 @@
       <c r="A15">
         <v>1783</v>
       </c>
+      <c r="B15" t="s">
+        <v>553</v>
+      </c>
       <c r="C15" s="1" t="s">
         <v>101</v>
       </c>
@@ -3516,6 +3586,9 @@
       <c r="A16">
         <v>1357</v>
       </c>
+      <c r="B16" t="s">
+        <v>553</v>
+      </c>
       <c r="C16" s="1" t="s">
         <v>107</v>
       </c>
@@ -3602,6 +3675,9 @@
       <c r="A17">
         <v>1319</v>
       </c>
+      <c r="B17" t="s">
+        <v>552</v>
+      </c>
       <c r="C17" s="1" t="s">
         <v>112</v>
       </c>
@@ -3688,6 +3764,9 @@
       <c r="A18">
         <v>1171</v>
       </c>
+      <c r="B18" t="s">
+        <v>551</v>
+      </c>
       <c r="C18" s="1" t="s">
         <v>118</v>
       </c>
@@ -3774,6 +3853,9 @@
       <c r="A19">
         <v>675</v>
       </c>
+      <c r="B19" t="s">
+        <v>555</v>
+      </c>
       <c r="C19" s="1" t="s">
         <v>123</v>
       </c>
@@ -3860,6 +3942,9 @@
       <c r="A20">
         <v>748</v>
       </c>
+      <c r="B20" t="s">
+        <v>556</v>
+      </c>
       <c r="C20" s="1" t="s">
         <v>126</v>
       </c>
@@ -3946,6 +4031,9 @@
       <c r="A21">
         <v>885</v>
       </c>
+      <c r="B21" t="s">
+        <v>555</v>
+      </c>
       <c r="C21" s="1" t="s">
         <v>131</v>
       </c>
@@ -4032,6 +4120,9 @@
       <c r="A22">
         <v>1270</v>
       </c>
+      <c r="B22" t="s">
+        <v>552</v>
+      </c>
       <c r="C22" s="1" t="s">
         <v>137</v>
       </c>
@@ -4118,6 +4209,9 @@
       <c r="A23">
         <v>1827</v>
       </c>
+      <c r="B23" t="s">
+        <v>553</v>
+      </c>
       <c r="C23" s="1" t="s">
         <v>143</v>
       </c>
@@ -4204,6 +4298,9 @@
       <c r="A24">
         <v>936</v>
       </c>
+      <c r="B24" t="s">
+        <v>552</v>
+      </c>
       <c r="C24" s="1" t="s">
         <v>148</v>
       </c>
@@ -4290,6 +4387,9 @@
       <c r="A25">
         <v>469</v>
       </c>
+      <c r="B25" t="s">
+        <v>555</v>
+      </c>
       <c r="C25" s="1" t="s">
         <v>153</v>
       </c>
@@ -4465,6 +4565,9 @@
       <c r="A27">
         <v>80</v>
       </c>
+      <c r="B27" t="s">
+        <v>551</v>
+      </c>
       <c r="C27" s="1" t="s">
         <v>159</v>
       </c>
@@ -4551,6 +4654,9 @@
       <c r="A28">
         <v>1209</v>
       </c>
+      <c r="B28" t="s">
+        <v>552</v>
+      </c>
       <c r="C28" s="1" t="s">
         <v>163</v>
       </c>
@@ -4637,6 +4743,9 @@
       <c r="A29">
         <v>1701</v>
       </c>
+      <c r="B29" t="s">
+        <v>551</v>
+      </c>
       <c r="C29" s="1" t="s">
         <v>168</v>
       </c>
@@ -4723,6 +4832,9 @@
       <c r="A30">
         <v>771</v>
       </c>
+      <c r="B30" t="s">
+        <v>553</v>
+      </c>
       <c r="C30" s="1" t="s">
         <v>172</v>
       </c>
@@ -4809,6 +4921,9 @@
       <c r="A31">
         <v>1925</v>
       </c>
+      <c r="B31" t="s">
+        <v>553</v>
+      </c>
       <c r="C31" s="1" t="s">
         <v>177</v>
       </c>
@@ -4895,6 +5010,9 @@
       <c r="A32">
         <v>1880</v>
       </c>
+      <c r="B32" t="s">
+        <v>555</v>
+      </c>
       <c r="C32" s="1" t="s">
         <v>182</v>
       </c>
@@ -4981,6 +5099,9 @@
       <c r="A33">
         <v>737</v>
       </c>
+      <c r="B33" t="s">
+        <v>555</v>
+      </c>
       <c r="C33" s="1" t="s">
         <v>187</v>
       </c>
@@ -5067,6 +5188,9 @@
       <c r="A34">
         <v>461</v>
       </c>
+      <c r="B34" t="s">
+        <v>555</v>
+      </c>
       <c r="C34" s="1" t="s">
         <v>191</v>
       </c>
@@ -5153,6 +5277,9 @@
       <c r="A35">
         <v>1872</v>
       </c>
+      <c r="B35" t="s">
+        <v>555</v>
+      </c>
       <c r="C35" s="1" t="s">
         <v>194</v>
       </c>
@@ -5239,6 +5366,9 @@
       <c r="A36">
         <v>102</v>
       </c>
+      <c r="B36" t="s">
+        <v>553</v>
+      </c>
       <c r="C36" s="1" t="s">
         <v>199</v>
       </c>
@@ -5325,6 +5455,9 @@
       <c r="A37">
         <v>1273</v>
       </c>
+      <c r="B37" t="s">
+        <v>554</v>
+      </c>
       <c r="C37" s="1" t="s">
         <v>205</v>
       </c>
@@ -5411,6 +5544,9 @@
       <c r="A38">
         <v>687</v>
       </c>
+      <c r="B38" t="s">
+        <v>552</v>
+      </c>
       <c r="C38" s="1" t="s">
         <v>208</v>
       </c>
@@ -5497,6 +5633,9 @@
       <c r="A39">
         <v>338</v>
       </c>
+      <c r="B39" t="s">
+        <v>552</v>
+      </c>
       <c r="C39" s="1" t="s">
         <v>212</v>
       </c>
@@ -5583,6 +5722,9 @@
       <c r="A40">
         <v>820</v>
       </c>
+      <c r="B40" t="s">
+        <v>552</v>
+      </c>
       <c r="C40" s="1" t="s">
         <v>216</v>
       </c>
@@ -5669,6 +5811,9 @@
       <c r="A41">
         <v>1973</v>
       </c>
+      <c r="B41" t="s">
+        <v>557</v>
+      </c>
       <c r="C41" s="1" t="s">
         <v>221</v>
       </c>
@@ -5755,6 +5900,9 @@
       <c r="A42">
         <v>1864</v>
       </c>
+      <c r="B42" t="s">
+        <v>555</v>
+      </c>
       <c r="C42" s="1" t="s">
         <v>224</v>
       </c>
@@ -5841,6 +5989,9 @@
       <c r="A43">
         <v>2200</v>
       </c>
+      <c r="B43" t="s">
+        <v>555</v>
+      </c>
       <c r="C43" s="1" t="s">
         <v>227</v>
       </c>
@@ -5927,6 +6078,9 @@
       <c r="A44">
         <v>304</v>
       </c>
+      <c r="B44" t="s">
+        <v>552</v>
+      </c>
       <c r="C44" s="1" t="s">
         <v>232</v>
       </c>
@@ -6013,6 +6167,9 @@
       <c r="A45">
         <v>1617</v>
       </c>
+      <c r="B45" t="s">
+        <v>555</v>
+      </c>
       <c r="C45" s="1" t="s">
         <v>235</v>
       </c>
@@ -6099,6 +6256,9 @@
       <c r="A46">
         <v>1205</v>
       </c>
+      <c r="B46" t="s">
+        <v>558</v>
+      </c>
       <c r="C46" s="1" t="s">
         <v>239</v>
       </c>
@@ -6185,6 +6345,9 @@
       <c r="A47">
         <v>95</v>
       </c>
+      <c r="B47" t="s">
+        <v>552</v>
+      </c>
       <c r="C47" s="1" t="s">
         <v>242</v>
       </c>
@@ -6271,6 +6434,9 @@
       <c r="A48">
         <v>1096</v>
       </c>
+      <c r="B48" t="s">
+        <v>555</v>
+      </c>
       <c r="C48" s="1" t="s">
         <v>247</v>
       </c>
@@ -6357,6 +6523,9 @@
       <c r="A49">
         <v>1943</v>
       </c>
+      <c r="B49" t="s">
+        <v>553</v>
+      </c>
       <c r="C49" s="1" t="s">
         <v>252</v>
       </c>
@@ -6443,6 +6612,9 @@
       <c r="A50">
         <v>473</v>
       </c>
+      <c r="B50" t="s">
+        <v>555</v>
+      </c>
       <c r="C50" s="1" t="s">
         <v>258</v>
       </c>
@@ -6529,6 +6701,9 @@
       <c r="A51">
         <v>2110</v>
       </c>
+      <c r="B51" t="s">
+        <v>551</v>
+      </c>
       <c r="C51" s="1" t="s">
         <v>263</v>
       </c>
@@ -6615,6 +6790,9 @@
       <c r="A52">
         <v>684</v>
       </c>
+      <c r="B52" t="s">
+        <v>551</v>
+      </c>
       <c r="C52" s="1" t="s">
         <v>268</v>
       </c>
@@ -6701,6 +6879,9 @@
       <c r="A53">
         <v>1603</v>
       </c>
+      <c r="B53" t="s">
+        <v>555</v>
+      </c>
       <c r="C53" s="1" t="s">
         <v>273</v>
       </c>
@@ -6787,6 +6968,9 @@
       <c r="A54">
         <v>1863</v>
       </c>
+      <c r="B54" t="s">
+        <v>555</v>
+      </c>
       <c r="C54" s="1" t="s">
         <v>279</v>
       </c>
@@ -6873,6 +7057,9 @@
       <c r="A55">
         <v>2050</v>
       </c>
+      <c r="B55" t="s">
+        <v>554</v>
+      </c>
       <c r="C55" s="1" t="s">
         <v>284</v>
       </c>
@@ -6959,6 +7146,9 @@
       <c r="A56">
         <v>1083</v>
       </c>
+      <c r="B56" t="s">
+        <v>554</v>
+      </c>
       <c r="C56" s="1" t="s">
         <v>289</v>
       </c>
@@ -7045,6 +7235,9 @@
       <c r="A57">
         <v>282</v>
       </c>
+      <c r="B57" t="s">
+        <v>554</v>
+      </c>
       <c r="C57" s="1" t="s">
         <v>293</v>
       </c>
@@ -7131,6 +7324,9 @@
       <c r="A58">
         <v>2094</v>
       </c>
+      <c r="B58" t="s">
+        <v>555</v>
+      </c>
       <c r="C58" s="1" t="s">
         <v>298</v>
       </c>
@@ -7217,6 +7413,9 @@
       <c r="A59">
         <v>1348</v>
       </c>
+      <c r="B59" t="s">
+        <v>555</v>
+      </c>
       <c r="C59" s="1" t="s">
         <v>304</v>
       </c>
@@ -7303,6 +7502,9 @@
       <c r="A60">
         <v>1852</v>
       </c>
+      <c r="B60" t="s">
+        <v>551</v>
+      </c>
       <c r="C60" s="1" t="s">
         <v>309</v>
       </c>
@@ -7389,6 +7591,9 @@
       <c r="A61">
         <v>226</v>
       </c>
+      <c r="B61" t="s">
+        <v>559</v>
+      </c>
       <c r="C61" s="1" t="s">
         <v>315</v>
       </c>
@@ -7475,6 +7680,9 @@
       <c r="A62">
         <v>462</v>
       </c>
+      <c r="B62" t="s">
+        <v>551</v>
+      </c>
       <c r="C62" s="1" t="s">
         <v>319</v>
       </c>
@@ -7561,6 +7769,9 @@
       <c r="A63">
         <v>1548</v>
       </c>
+      <c r="B63" t="s">
+        <v>555</v>
+      </c>
       <c r="C63" s="1" t="s">
         <v>323</v>
       </c>
@@ -7647,6 +7858,9 @@
       <c r="A64">
         <v>1347</v>
       </c>
+      <c r="B64" t="s">
+        <v>552</v>
+      </c>
       <c r="C64" s="1" t="s">
         <v>328</v>
       </c>
@@ -7733,6 +7947,9 @@
       <c r="A65">
         <v>700</v>
       </c>
+      <c r="B65" t="s">
+        <v>554</v>
+      </c>
       <c r="C65" s="1" t="s">
         <v>332</v>
       </c>
@@ -7819,6 +8036,9 @@
       <c r="A66">
         <v>1930</v>
       </c>
+      <c r="B66" t="s">
+        <v>552</v>
+      </c>
       <c r="C66" s="1" t="s">
         <v>337</v>
       </c>
@@ -7905,6 +8125,9 @@
       <c r="A67">
         <v>2205</v>
       </c>
+      <c r="B67" t="s">
+        <v>554</v>
+      </c>
       <c r="C67" s="1" t="s">
         <v>343</v>
       </c>
@@ -7991,6 +8214,9 @@
       <c r="A68">
         <v>937</v>
       </c>
+      <c r="B68" t="s">
+        <v>554</v>
+      </c>
       <c r="C68" s="1" t="s">
         <v>348</v>
       </c>
@@ -8077,6 +8303,9 @@
       <c r="A69">
         <v>1400</v>
       </c>
+      <c r="B69" t="s">
+        <v>554</v>
+      </c>
       <c r="C69" s="1" t="s">
         <v>353</v>
       </c>
@@ -8163,6 +8392,9 @@
       <c r="A70">
         <v>1157</v>
       </c>
+      <c r="B70" t="s">
+        <v>554</v>
+      </c>
       <c r="C70" s="1" t="s">
         <v>358</v>
       </c>
@@ -8249,6 +8481,9 @@
       <c r="A71">
         <v>1747</v>
       </c>
+      <c r="B71" t="s">
+        <v>553</v>
+      </c>
       <c r="C71" s="1" t="s">
         <v>363</v>
       </c>
@@ -8335,6 +8570,9 @@
       <c r="A72">
         <v>2195</v>
       </c>
+      <c r="B72" t="s">
+        <v>553</v>
+      </c>
       <c r="C72" s="1" t="s">
         <v>368</v>
       </c>
@@ -8421,6 +8659,9 @@
       <c r="A73">
         <v>1406</v>
       </c>
+      <c r="B73" t="s">
+        <v>554</v>
+      </c>
       <c r="C73" s="1" t="s">
         <v>373</v>
       </c>
@@ -8507,6 +8748,9 @@
       <c r="A74">
         <v>574</v>
       </c>
+      <c r="B74" t="s">
+        <v>554</v>
+      </c>
       <c r="C74" s="1" t="s">
         <v>377</v>
       </c>
@@ -8593,6 +8837,9 @@
       <c r="A75">
         <v>766</v>
       </c>
+      <c r="B75" t="s">
+        <v>555</v>
+      </c>
       <c r="C75" s="1" t="s">
         <v>382</v>
       </c>
@@ -8679,6 +8926,9 @@
       <c r="A76">
         <v>1955</v>
       </c>
+      <c r="B76" t="s">
+        <v>553</v>
+      </c>
       <c r="C76" s="1" t="s">
         <v>387</v>
       </c>
@@ -8765,6 +9015,9 @@
       <c r="A77">
         <v>1086</v>
       </c>
+      <c r="B77" t="s">
+        <v>553</v>
+      </c>
       <c r="C77" s="1" t="s">
         <v>392</v>
       </c>
@@ -8851,6 +9104,9 @@
       <c r="A78">
         <v>1709</v>
       </c>
+      <c r="B78" t="s">
+        <v>553</v>
+      </c>
       <c r="C78" s="1" t="s">
         <v>396</v>
       </c>
@@ -8937,6 +9193,9 @@
       <c r="A79">
         <v>246</v>
       </c>
+      <c r="B79" t="s">
+        <v>555</v>
+      </c>
       <c r="C79" s="1" t="s">
         <v>400</v>
       </c>
@@ -9023,6 +9282,9 @@
       <c r="A80">
         <v>1098</v>
       </c>
+      <c r="B80" t="s">
+        <v>552</v>
+      </c>
       <c r="C80" s="1" t="s">
         <v>406</v>
       </c>
@@ -9109,6 +9371,9 @@
       <c r="A81">
         <v>678</v>
       </c>
+      <c r="B81" t="s">
+        <v>552</v>
+      </c>
       <c r="C81" s="1" t="s">
         <v>411</v>
       </c>
@@ -9195,6 +9460,9 @@
       <c r="A82">
         <v>2014</v>
       </c>
+      <c r="B82" t="s">
+        <v>551</v>
+      </c>
       <c r="C82" s="1" t="s">
         <v>415</v>
       </c>
@@ -9281,6 +9549,9 @@
       <c r="A83">
         <v>2120</v>
       </c>
+      <c r="B83" t="s">
+        <v>555</v>
+      </c>
       <c r="C83" s="1" t="s">
         <v>420</v>
       </c>
@@ -9367,6 +9638,9 @@
       <c r="A84">
         <v>1474</v>
       </c>
+      <c r="B84" t="s">
+        <v>560</v>
+      </c>
       <c r="C84" s="1" t="s">
         <v>425</v>
       </c>
@@ -9453,6 +9727,9 @@
       <c r="A85">
         <v>2053</v>
       </c>
+      <c r="B85" t="s">
+        <v>552</v>
+      </c>
       <c r="C85" s="1" t="s">
         <v>430</v>
       </c>
@@ -9539,6 +9816,9 @@
       <c r="A86">
         <v>2020</v>
       </c>
+      <c r="B86" t="s">
+        <v>555</v>
+      </c>
       <c r="C86" s="1" t="s">
         <v>435</v>
       </c>
@@ -9625,6 +9905,9 @@
       <c r="A87">
         <v>1790</v>
       </c>
+      <c r="B87" t="s">
+        <v>555</v>
+      </c>
       <c r="C87" s="1" t="s">
         <v>440</v>
       </c>
@@ -9711,6 +9994,9 @@
       <c r="A88">
         <v>325</v>
       </c>
+      <c r="B88" t="s">
+        <v>552</v>
+      </c>
       <c r="C88" s="1" t="s">
         <v>445</v>
       </c>
@@ -9797,6 +10083,9 @@
       <c r="A89">
         <v>1567</v>
       </c>
+      <c r="B89" t="s">
+        <v>555</v>
+      </c>
       <c r="C89" s="1" t="s">
         <v>450</v>
       </c>
@@ -9883,6 +10172,9 @@
       <c r="A90">
         <v>122</v>
       </c>
+      <c r="B90" t="s">
+        <v>561</v>
+      </c>
       <c r="C90" s="1" t="s">
         <v>456</v>
       </c>
@@ -9969,6 +10261,9 @@
       <c r="A91">
         <v>739</v>
       </c>
+      <c r="B91" t="s">
+        <v>552</v>
+      </c>
       <c r="C91" s="1" t="s">
         <v>459</v>
       </c>
@@ -10144,6 +10439,9 @@
       <c r="A93">
         <v>1091</v>
       </c>
+      <c r="B93" t="s">
+        <v>551</v>
+      </c>
       <c r="C93" s="1" t="s">
         <v>468</v>
       </c>
@@ -10230,6 +10528,9 @@
       <c r="A94">
         <v>2017</v>
       </c>
+      <c r="B94" t="s">
+        <v>553</v>
+      </c>
       <c r="C94" s="1" t="s">
         <v>471</v>
       </c>
@@ -10316,6 +10617,9 @@
       <c r="A95">
         <v>2032</v>
       </c>
+      <c r="B95" t="s">
+        <v>552</v>
+      </c>
       <c r="C95" s="1" t="s">
         <v>476</v>
       </c>
@@ -10402,6 +10706,9 @@
       <c r="A96">
         <v>151</v>
       </c>
+      <c r="B96" t="s">
+        <v>555</v>
+      </c>
       <c r="C96" s="1" t="s">
         <v>481</v>
       </c>
@@ -10488,6 +10795,9 @@
       <c r="A97">
         <v>1537</v>
       </c>
+      <c r="B97" t="s">
+        <v>554</v>
+      </c>
       <c r="C97" s="1" t="s">
         <v>486</v>
       </c>
@@ -10574,6 +10884,9 @@
       <c r="A98">
         <v>971</v>
       </c>
+      <c r="B98" t="s">
+        <v>555</v>
+      </c>
       <c r="C98" s="1" t="s">
         <v>489</v>
       </c>
@@ -10660,6 +10973,9 @@
       <c r="A99">
         <v>1062</v>
       </c>
+      <c r="B99" t="s">
+        <v>555</v>
+      </c>
       <c r="C99" s="1" t="s">
         <v>494</v>
       </c>
@@ -10746,6 +11062,9 @@
       <c r="A100">
         <v>1250</v>
       </c>
+      <c r="B100" t="s">
+        <v>552</v>
+      </c>
       <c r="C100" s="1" t="s">
         <v>499</v>
       </c>
@@ -10832,6 +11151,9 @@
       <c r="A101">
         <v>928</v>
       </c>
+      <c r="B101" t="s">
+        <v>552</v>
+      </c>
       <c r="C101" s="1" t="s">
         <v>503</v>
       </c>
@@ -10918,6 +11240,9 @@
       <c r="A102">
         <v>1793</v>
       </c>
+      <c r="B102" t="s">
+        <v>555</v>
+      </c>
       <c r="C102" s="1" t="s">
         <v>508</v>
       </c>
@@ -11004,6 +11329,9 @@
       <c r="A103">
         <v>2199</v>
       </c>
+      <c r="B103" t="s">
+        <v>552</v>
+      </c>
       <c r="C103" s="1" t="s">
         <v>512</v>
       </c>
@@ -11090,6 +11418,9 @@
       <c r="A104">
         <v>1097</v>
       </c>
+      <c r="B104" t="s">
+        <v>553</v>
+      </c>
       <c r="C104" s="1" t="s">
         <v>515</v>
       </c>
@@ -11176,6 +11507,9 @@
       <c r="A105">
         <v>1201</v>
       </c>
+      <c r="B105" t="s">
+        <v>552</v>
+      </c>
       <c r="C105" s="1" t="s">
         <v>520</v>
       </c>
@@ -11262,6 +11596,9 @@
       <c r="A106">
         <v>834</v>
       </c>
+      <c r="B106" t="s">
+        <v>562</v>
+      </c>
       <c r="C106" s="1" t="s">
         <v>525</v>
       </c>
@@ -11348,6 +11685,9 @@
       <c r="A107">
         <v>899</v>
       </c>
+      <c r="B107" t="s">
+        <v>551</v>
+      </c>
       <c r="C107" s="1" t="s">
         <v>530</v>
       </c>
@@ -11434,6 +11774,9 @@
       <c r="A108">
         <v>1193</v>
       </c>
+      <c r="B108" t="s">
+        <v>563</v>
+      </c>
       <c r="C108" s="1" t="s">
         <v>534</v>
       </c>
@@ -11520,6 +11863,9 @@
       <c r="A109">
         <v>2041</v>
       </c>
+      <c r="B109" t="s">
+        <v>564</v>
+      </c>
       <c r="C109" s="1" t="s">
         <v>538</v>
       </c>
@@ -11606,6 +11952,9 @@
       <c r="A110">
         <v>618</v>
       </c>
+      <c r="B110" t="s">
+        <v>555</v>
+      </c>
       <c r="C110" s="1" t="s">
         <v>542</v>
       </c>
@@ -11691,6 +12040,9 @@
     <row r="111" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>82</v>
+      </c>
+      <c r="B111" t="s">
+        <v>551</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>545</v>

--- a/notebooks/sampling/samples.xlsx
+++ b/notebooks/sampling/samples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b73f4100931222f3/WU/Semester 4/Thesis/git-miner/notebooks/sampling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="137" documentId="8_{0A97425D-7AEA-4D26-8512-4A282A40B2FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1560E339-DD35-49CA-96DD-061958F4EE26}"/>
+  <xr:revisionPtr revIDLastSave="138" documentId="8_{0A97425D-7AEA-4D26-8512-4A282A40B2FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E163EEAD-E59E-461B-9179-F243BBCED7B9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{59E379DB-0ECB-4CF0-882C-DBE5760192CF}"/>
   </bookViews>
@@ -1880,7 +1880,24 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6E47DF51-EF65-4346-B539-E02DAEB6DF7C}" name="sample_projects" displayName="sample_projects" ref="A1:AC111" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:AC111" xr:uid="{1988CC57-44D0-401C-888C-FA097F14F905}"/>
+  <autoFilter ref="A1:AC111" xr:uid="{1988CC57-44D0-401C-888C-FA097F14F905}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="?"/>
+        <filter val="OK"/>
+        <filter val="OK (modified)"/>
+        <filter val="OK (rel-)"/>
+        <filter val="OK (release-)"/>
+        <filter val="OK (sometimes v)"/>
+        <filter val="OK (v and z)"/>
+        <filter val="OK (v or netcdf-)"/>
+        <filter val="OK (v)"/>
+        <filter val="OK (v, modified)"/>
+        <filter val="OK (v, modify?)"/>
+        <filter val="OK (zfs-)"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{7A521529-590B-4DEE-A9CF-8EE2E32E7FE0}" uniqueName="1" name="Column1" queryTableFieldId="1"/>
     <tableColumn id="29" xr3:uid="{7AFB162B-BE74-4837-AA6C-9BE2D0E54B69}" uniqueName="29" name="Versioning" queryTableFieldId="29"/>
@@ -2215,7 +2232,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F36F3A-0913-43E9-A218-DD67C26CDF8D}">
   <dimension ref="A1:AC111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E111" sqref="E2:E111"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3137,7 +3156,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1328</v>
       </c>
@@ -3404,7 +3423,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>134</v>
       </c>
@@ -3671,7 +3690,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1319</v>
       </c>
@@ -4116,7 +4135,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1270</v>
       </c>
@@ -4294,7 +4313,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>936</v>
       </c>
@@ -4472,7 +4491,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>173</v>
       </c>
@@ -4650,7 +4669,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1209</v>
       </c>
@@ -5540,7 +5559,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>687</v>
       </c>
@@ -5629,7 +5648,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>338</v>
       </c>
@@ -5718,7 +5737,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>820</v>
       </c>
@@ -6074,7 +6093,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>304</v>
       </c>
@@ -6341,7 +6360,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>95</v>
       </c>
@@ -7854,7 +7873,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1347</v>
       </c>
@@ -8032,7 +8051,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1930</v>
       </c>
@@ -9278,7 +9297,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1098</v>
       </c>
@@ -9367,7 +9386,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>678</v>
       </c>
@@ -9723,7 +9742,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>2053</v>
       </c>
@@ -9990,7 +10009,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>325</v>
       </c>
@@ -10257,7 +10276,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>739</v>
       </c>
@@ -10346,7 +10365,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>471</v>
       </c>
@@ -10613,7 +10632,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>2032</v>
       </c>
@@ -11058,7 +11077,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1250</v>
       </c>
@@ -11147,7 +11166,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>928</v>
       </c>
@@ -11325,7 +11344,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>2199</v>
       </c>
@@ -11503,7 +11522,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1201</v>
       </c>
@@ -11770,7 +11789,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1193</v>
       </c>

--- a/notebooks/sampling/samples.xlsx
+++ b/notebooks/sampling/samples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b73f4100931222f3/WU/Semester 4/Thesis/git-miner/notebooks/sampling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="138" documentId="8_{0A97425D-7AEA-4D26-8512-4A282A40B2FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E163EEAD-E59E-461B-9179-F243BBCED7B9}"/>
+  <xr:revisionPtr revIDLastSave="139" documentId="8_{0A97425D-7AEA-4D26-8512-4A282A40B2FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{04CC1722-4CC4-4E51-87B4-C5E5BEE4D765}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{59E379DB-0ECB-4CF0-882C-DBE5760192CF}"/>
   </bookViews>
@@ -1880,24 +1880,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6E47DF51-EF65-4346-B539-E02DAEB6DF7C}" name="sample_projects" displayName="sample_projects" ref="A1:AC111" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:AC111" xr:uid="{1988CC57-44D0-401C-888C-FA097F14F905}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="?"/>
-        <filter val="OK"/>
-        <filter val="OK (modified)"/>
-        <filter val="OK (rel-)"/>
-        <filter val="OK (release-)"/>
-        <filter val="OK (sometimes v)"/>
-        <filter val="OK (v and z)"/>
-        <filter val="OK (v or netcdf-)"/>
-        <filter val="OK (v)"/>
-        <filter val="OK (v, modified)"/>
-        <filter val="OK (v, modify?)"/>
-        <filter val="OK (zfs-)"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AC111" xr:uid="{1988CC57-44D0-401C-888C-FA097F14F905}"/>
   <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{7A521529-590B-4DEE-A9CF-8EE2E32E7FE0}" uniqueName="1" name="Column1" queryTableFieldId="1"/>
     <tableColumn id="29" xr3:uid="{7AFB162B-BE74-4837-AA6C-9BE2D0E54B69}" uniqueName="29" name="Versioning" queryTableFieldId="29"/>
@@ -2232,9 +2215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F36F3A-0913-43E9-A218-DD67C26CDF8D}">
   <dimension ref="A1:AC111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E111" sqref="E2:E111"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3156,7 +3137,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1328</v>
       </c>
@@ -3423,7 +3404,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>134</v>
       </c>
@@ -3690,7 +3671,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1319</v>
       </c>
@@ -4135,7 +4116,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1270</v>
       </c>
@@ -4313,7 +4294,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>936</v>
       </c>
@@ -4491,7 +4472,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>173</v>
       </c>
@@ -4669,7 +4650,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1209</v>
       </c>
@@ -5559,7 +5540,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>687</v>
       </c>
@@ -5648,7 +5629,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="39" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>338</v>
       </c>
@@ -5737,7 +5718,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="40" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>820</v>
       </c>
@@ -6093,7 +6074,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="44" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>304</v>
       </c>
@@ -6360,7 +6341,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>95</v>
       </c>
@@ -7873,7 +7854,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="64" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1347</v>
       </c>
@@ -8051,7 +8032,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="66" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1930</v>
       </c>
@@ -9297,7 +9278,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="80" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1098</v>
       </c>
@@ -9386,7 +9367,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="81" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>678</v>
       </c>
@@ -9742,7 +9723,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="85" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>2053</v>
       </c>
@@ -10009,7 +9990,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="88" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>325</v>
       </c>
@@ -10276,7 +10257,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>739</v>
       </c>
@@ -10365,7 +10346,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="92" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>471</v>
       </c>
@@ -10632,7 +10613,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="95" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>2032</v>
       </c>
@@ -11077,7 +11058,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="100" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1250</v>
       </c>
@@ -11166,7 +11147,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="101" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>928</v>
       </c>
@@ -11344,7 +11325,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="103" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>2199</v>
       </c>
@@ -11522,7 +11503,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="105" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1201</v>
       </c>
@@ -11789,7 +11770,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="108" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1193</v>
       </c>

--- a/notebooks/sampling/samples.xlsx
+++ b/notebooks/sampling/samples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b73f4100931222f3/WU/Semester 4/Thesis/git-miner/notebooks/sampling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="139" documentId="8_{0A97425D-7AEA-4D26-8512-4A282A40B2FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{04CC1722-4CC4-4E51-87B4-C5E5BEE4D765}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="8_{0A97425D-7AEA-4D26-8512-4A282A40B2FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{992BAA26-6EC6-4095-80F7-EFC1777C05CD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{59E379DB-0ECB-4CF0-882C-DBE5760192CF}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="564">
   <si>
     <t>Column1</t>
   </si>
@@ -1714,9 +1714,6 @@
   </si>
   <si>
     <t>OK (v)</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>OK (rel-)</t>
@@ -1880,7 +1877,24 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6E47DF51-EF65-4346-B539-E02DAEB6DF7C}" name="sample_projects" displayName="sample_projects" ref="A1:AC111" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:AC111" xr:uid="{1988CC57-44D0-401C-888C-FA097F14F905}"/>
+  <autoFilter ref="A1:AC111" xr:uid="{FD81916A-D344-490C-9F2B-8D09BF26A708}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="?"/>
+        <filter val="OK"/>
+        <filter val="OK (modified)"/>
+        <filter val="OK (rel-)"/>
+        <filter val="OK (release-)"/>
+        <filter val="OK (sometimes v)"/>
+        <filter val="OK (v and z)"/>
+        <filter val="OK (v or netcdf-)"/>
+        <filter val="OK (v)"/>
+        <filter val="OK (v, modified)"/>
+        <filter val="OK (v, modify?)"/>
+        <filter val="OK (zfs-)"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{7A521529-590B-4DEE-A9CF-8EE2E32E7FE0}" uniqueName="1" name="Column1" queryTableFieldId="1"/>
     <tableColumn id="29" xr3:uid="{7AFB162B-BE74-4837-AA6C-9BE2D0E54B69}" uniqueName="29" name="Versioning" queryTableFieldId="29"/>
@@ -2215,39 +2229,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F36F3A-0913-43E9-A218-DD67C26CDF8D}">
   <dimension ref="A1:AC111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="50.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="80.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="80.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2336,7 +2352,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1288</v>
       </c>
@@ -2425,7 +2441,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1048</v>
       </c>
@@ -2514,7 +2530,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1712</v>
       </c>
@@ -2603,7 +2619,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>387</v>
       </c>
@@ -2692,7 +2708,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1018</v>
       </c>
@@ -2781,7 +2797,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>437</v>
       </c>
@@ -2870,7 +2886,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>564</v>
       </c>
@@ -2959,7 +2975,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1035</v>
       </c>
@@ -3048,7 +3064,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>144</v>
       </c>
@@ -3137,7 +3153,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1328</v>
       </c>
@@ -3226,7 +3242,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>199</v>
       </c>
@@ -3315,7 +3331,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1865</v>
       </c>
@@ -3404,7 +3420,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>134</v>
       </c>
@@ -3493,7 +3509,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1783</v>
       </c>
@@ -3582,7 +3598,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1357</v>
       </c>
@@ -3671,7 +3687,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1319</v>
       </c>
@@ -3760,7 +3776,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1171</v>
       </c>
@@ -3849,7 +3865,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>675</v>
       </c>
@@ -3938,12 +3954,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>748</v>
       </c>
       <c r="B20" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>126</v>
@@ -4027,7 +4043,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>885</v>
       </c>
@@ -4116,7 +4132,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1270</v>
       </c>
@@ -4205,7 +4221,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1827</v>
       </c>
@@ -4294,7 +4310,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>936</v>
       </c>
@@ -4383,7 +4399,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>469</v>
       </c>
@@ -4472,7 +4488,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>173</v>
       </c>
@@ -4561,7 +4577,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>80</v>
       </c>
@@ -4650,7 +4666,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1209</v>
       </c>
@@ -4739,7 +4755,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1701</v>
       </c>
@@ -4828,7 +4844,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>771</v>
       </c>
@@ -4917,7 +4933,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1925</v>
       </c>
@@ -5006,7 +5022,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1880</v>
       </c>
@@ -5095,7 +5111,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>737</v>
       </c>
@@ -5184,7 +5200,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>461</v>
       </c>
@@ -5273,7 +5289,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1872</v>
       </c>
@@ -5362,7 +5378,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>102</v>
       </c>
@@ -5451,7 +5467,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1273</v>
       </c>
@@ -5540,7 +5556,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>687</v>
       </c>
@@ -5629,7 +5645,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>338</v>
       </c>
@@ -5718,7 +5734,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>820</v>
       </c>
@@ -5807,12 +5823,12 @@
         <v>220</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1973</v>
       </c>
       <c r="B41" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>221</v>
@@ -5896,7 +5912,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1864</v>
       </c>
@@ -5985,7 +6001,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2200</v>
       </c>
@@ -6074,7 +6090,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>304</v>
       </c>
@@ -6163,7 +6179,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1617</v>
       </c>
@@ -6252,12 +6268,12 @@
         <v>238</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1205</v>
       </c>
       <c r="B46" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>239</v>
@@ -6341,7 +6357,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>95</v>
       </c>
@@ -6430,7 +6446,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1096</v>
       </c>
@@ -6519,7 +6535,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1943</v>
       </c>
@@ -6608,7 +6624,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>473</v>
       </c>
@@ -6697,7 +6713,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2110</v>
       </c>
@@ -6786,7 +6802,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>684</v>
       </c>
@@ -6875,7 +6891,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1603</v>
       </c>
@@ -6964,7 +6980,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1863</v>
       </c>
@@ -7053,7 +7069,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2050</v>
       </c>
@@ -7142,7 +7158,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1083</v>
       </c>
@@ -7231,7 +7247,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>282</v>
       </c>
@@ -7320,7 +7336,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2094</v>
       </c>
@@ -7409,7 +7425,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1348</v>
       </c>
@@ -7498,7 +7514,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1852</v>
       </c>
@@ -7587,12 +7603,12 @@
         <v>314</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>226</v>
       </c>
       <c r="B61" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>315</v>
@@ -7676,7 +7692,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>462</v>
       </c>
@@ -7765,7 +7781,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1548</v>
       </c>
@@ -7854,7 +7870,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1347</v>
       </c>
@@ -7943,7 +7959,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>700</v>
       </c>
@@ -8032,7 +8048,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1930</v>
       </c>
@@ -8121,7 +8137,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2205</v>
       </c>
@@ -8210,7 +8226,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>937</v>
       </c>
@@ -8299,7 +8315,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1400</v>
       </c>
@@ -8388,7 +8404,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1157</v>
       </c>
@@ -8477,7 +8493,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1747</v>
       </c>
@@ -8566,7 +8582,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2195</v>
       </c>
@@ -8655,7 +8671,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1406</v>
       </c>
@@ -8744,7 +8760,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>574</v>
       </c>
@@ -8833,7 +8849,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>766</v>
       </c>
@@ -8922,7 +8938,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1955</v>
       </c>
@@ -9011,7 +9027,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1086</v>
       </c>
@@ -9100,7 +9116,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1709</v>
       </c>
@@ -9189,7 +9205,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>246</v>
       </c>
@@ -9278,7 +9294,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1098</v>
       </c>
@@ -9367,7 +9383,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>678</v>
       </c>
@@ -9456,7 +9472,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2014</v>
       </c>
@@ -9545,7 +9561,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2120</v>
       </c>
@@ -9634,12 +9650,12 @@
         <v>424</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1474</v>
       </c>
       <c r="B84" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>425</v>
@@ -9723,7 +9739,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2053</v>
       </c>
@@ -9812,7 +9828,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2020</v>
       </c>
@@ -9901,7 +9917,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1790</v>
       </c>
@@ -9990,7 +10006,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>325</v>
       </c>
@@ -10079,7 +10095,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1567</v>
       </c>
@@ -10168,12 +10184,12 @@
         <v>455</v>
       </c>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>122</v>
       </c>
       <c r="B90" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>456</v>
@@ -10257,7 +10273,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>739</v>
       </c>
@@ -10346,7 +10362,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>471</v>
       </c>
@@ -10435,7 +10451,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1091</v>
       </c>
@@ -10524,7 +10540,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2017</v>
       </c>
@@ -10613,7 +10629,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2032</v>
       </c>
@@ -10702,7 +10718,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>151</v>
       </c>
@@ -10791,7 +10807,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1537</v>
       </c>
@@ -10880,7 +10896,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>971</v>
       </c>
@@ -10969,7 +10985,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1062</v>
       </c>
@@ -11058,7 +11074,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1250</v>
       </c>
@@ -11147,7 +11163,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>928</v>
       </c>
@@ -11236,7 +11252,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1793</v>
       </c>
@@ -11325,7 +11341,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2199</v>
       </c>
@@ -11414,7 +11430,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1097</v>
       </c>
@@ -11503,7 +11519,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1201</v>
       </c>
@@ -11592,12 +11608,12 @@
         <v>524</v>
       </c>
     </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>834</v>
       </c>
       <c r="B106" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>525</v>
@@ -11681,7 +11697,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>899</v>
       </c>
@@ -11770,12 +11786,12 @@
         <v>533</v>
       </c>
     </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1193</v>
       </c>
       <c r="B108" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>534</v>
@@ -11859,12 +11875,12 @@
         <v>308</v>
       </c>
     </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2041</v>
       </c>
       <c r="B109" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>538</v>
@@ -11948,7 +11964,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>618</v>
       </c>
@@ -12037,7 +12053,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>82</v>
       </c>
@@ -12141,7 +12157,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
